--- a/data/trans_orig/IP18A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069C9D56-D5C5-4A0B-BA28-EAEC00E60D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB2A0C9-2FF3-4AD0-A644-C8192446B9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5BAB4613-CF12-40A5-A661-E7C64314546F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AF082B60-3414-4DA7-9D3B-3050A93B669D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -119,6 +119,39 @@
     <t>1,17%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -131,9 +164,6 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
     <t>97,03%</t>
   </si>
   <si>
@@ -158,9 +188,6 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
@@ -176,33 +203,6 @@
     <t>2,22%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
@@ -296,6 +296,48 @@
     <t>1,01%</t>
   </si>
   <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
     <t>99,46%</t>
   </si>
   <si>
@@ -332,48 +374,6 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
     <t>98,89%</t>
   </si>
   <si>
@@ -449,6 +449,36 @@
     <t>2,33%</t>
   </si>
   <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>97,54%</t>
   </si>
   <si>
@@ -479,36 +509,6 @@
     <t>2,83%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
     <t>98,58%</t>
   </si>
   <si>
@@ -596,6 +596,48 @@
     <t>7,33%</t>
   </si>
   <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
     <t>93,57%</t>
   </si>
   <si>
@@ -636,48 +678,6 @@
   </si>
   <si>
     <t>11,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
   </si>
   <si>
     <t>95,58%</t>
@@ -1117,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2D848-468E-48D6-8887-B2DDF90A0AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C78674-F89B-4CAC-8B20-C0B1271ABC12}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1390,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D7" s="7">
-        <v>223588</v>
+        <v>196917</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1402,37 +1402,37 @@
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>269</v>
+      </c>
+      <c r="I7" s="7">
+        <v>182239</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>318</v>
-      </c>
-      <c r="I7" s="7">
-        <v>214866</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>567</v>
+      </c>
+      <c r="N7" s="7">
+        <v>379156</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7">
-        <v>654</v>
-      </c>
-      <c r="N7" s="7">
-        <v>438454</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,49 +1441,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2139</v>
+        <v>1385</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1385</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2395</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4534</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,10 +1492,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>225727</v>
+        <v>198302</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1507,10 +1507,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="I9" s="7">
-        <v>217261</v>
+        <v>182239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1522,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>660</v>
+        <v>569</v>
       </c>
       <c r="N9" s="7">
-        <v>442988</v>
+        <v>380541</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1539,55 +1539,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="D10" s="7">
-        <v>196917</v>
+        <v>223588</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="I10" s="7">
-        <v>182239</v>
+        <v>214866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
-        <v>567</v>
+        <v>654</v>
       </c>
       <c r="N10" s="7">
-        <v>379156</v>
+        <v>438454</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,49 +1596,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1385</v>
+        <v>2139</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2395</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4534</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1385</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,10 +1647,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7">
-        <v>198302</v>
+        <v>225727</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1662,10 +1662,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="I12" s="7">
-        <v>182239</v>
+        <v>217261</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1677,10 +1677,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>569</v>
+        <v>660</v>
       </c>
       <c r="N12" s="7">
-        <v>380541</v>
+        <v>442988</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1863,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDF780C-2A8D-4588-9B39-41F2416542C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFE72F1-1141-4AB2-A42C-B02841A266C8}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2136,10 +2136,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="D7" s="7">
-        <v>248782</v>
+        <v>219303</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>85</v>
@@ -2148,37 +2148,37 @@
         <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="I7" s="7">
-        <v>230245</v>
+        <v>212628</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
-        <v>692</v>
+        <v>599</v>
       </c>
       <c r="N7" s="7">
-        <v>479027</v>
+        <v>431931</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,49 +2187,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>1339</v>
+        <v>5886</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>1382</v>
+        <v>3582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>2720</v>
+        <v>9468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,10 +2238,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="D9" s="7">
-        <v>250121</v>
+        <v>225189</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2253,10 +2253,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>231627</v>
+        <v>216210</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2268,10 +2268,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>696</v>
+        <v>612</v>
       </c>
       <c r="N9" s="7">
-        <v>481747</v>
+        <v>441399</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2285,55 +2285,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="D10" s="7">
-        <v>219303</v>
+        <v>248782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="I10" s="7">
-        <v>212628</v>
+        <v>230245</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="N10" s="7">
-        <v>431931</v>
+        <v>479027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,46 +2342,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>5886</v>
+        <v>1339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>106</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>3582</v>
+        <v>1382</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>9468</v>
+        <v>2720</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>110</v>
@@ -2393,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="D12" s="7">
-        <v>225189</v>
+        <v>250121</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2408,10 +2408,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="I12" s="7">
-        <v>216210</v>
+        <v>231627</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2423,10 +2423,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="N12" s="7">
-        <v>441399</v>
+        <v>481747</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2470,10 +2470,10 @@
         <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>1940</v>
@@ -2521,10 +2521,10 @@
         <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -2609,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643719D2-C1BC-49D7-A024-4F63C5767829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91192720-C80C-406C-BC02-14461759402F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2882,49 +2882,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D7" s="7">
-        <v>236514</v>
+        <v>224132</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="7">
+        <v>319</v>
+      </c>
+      <c r="I7" s="7">
+        <v>209441</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="7">
-        <v>329</v>
-      </c>
-      <c r="I7" s="7">
-        <v>234627</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="K7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="7">
+        <v>644</v>
+      </c>
+      <c r="N7" s="7">
+        <v>433573</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>649</v>
-      </c>
-      <c r="N7" s="7">
-        <v>471141</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,46 +2933,46 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>5954</v>
+        <v>2285</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3682</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1429</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>7383</v>
+        <v>5967</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>145</v>
@@ -2984,10 +2984,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>242468</v>
+        <v>226417</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2999,10 +2999,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I9" s="7">
-        <v>236056</v>
+        <v>213123</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3014,10 +3014,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="N9" s="7">
-        <v>478524</v>
+        <v>439540</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3031,55 +3031,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>224132</v>
+        <v>236514</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="H10" s="7">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="I10" s="7">
-        <v>209441</v>
+        <v>234627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="N10" s="7">
-        <v>433573</v>
+        <v>471141</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,46 +3088,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2285</v>
+        <v>5954</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>3682</v>
+        <v>1429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>5967</v>
+        <v>7383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>155</v>
@@ -3139,10 +3139,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" s="7">
-        <v>226417</v>
+        <v>242468</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3154,10 +3154,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I12" s="7">
-        <v>213123</v>
+        <v>236056</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3169,10 +3169,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="N12" s="7">
-        <v>439540</v>
+        <v>478524</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3201,7 +3201,7 @@
         <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>157</v>
@@ -3255,7 +3255,7 @@
         <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3355,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6B463-4033-4339-9777-73891D315E49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204088D2-AAB2-4790-B28B-76343F95BEC2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3509,7 +3509,7 @@
         <v>48932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>177</v>
@@ -3560,7 +3560,7 @@
         <v>1313</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>183</v>
@@ -3628,10 +3628,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>56802</v>
+        <v>36876</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>185</v>
@@ -3640,13 +3640,13 @@
         <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>41122</v>
+        <v>34149</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>187</v>
@@ -3658,10 +3658,10 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="N7" s="7">
-        <v>97924</v>
+        <v>71026</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>189</v>
@@ -3679,25 +3679,25 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3900</v>
+        <v>1304</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>193</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>194</v>
@@ -3709,10 +3709,10 @@
         <v>195</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>5262</v>
+        <v>1891</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>196</v>
@@ -3730,10 +3730,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3745,10 +3745,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>42484</v>
+        <v>34736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3760,10 +3760,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N9" s="7">
-        <v>103186</v>
+        <v>72917</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3777,16 +3777,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>36876</v>
+        <v>56802</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>199</v>
@@ -3795,13 +3795,13 @@
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>34149</v>
+        <v>41122</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>201</v>
@@ -3813,10 +3813,10 @@
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="N10" s="7">
-        <v>71026</v>
+        <v>97924</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>203</v>
@@ -3834,25 +3834,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1304</v>
+        <v>3900</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>587</v>
+        <v>1362</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>208</v>
@@ -3864,10 +3864,10 @@
         <v>209</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>1891</v>
+        <v>5262</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>210</v>
@@ -3885,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D12" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3900,10 +3900,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>34736</v>
+        <v>42484</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3915,10 +3915,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N12" s="7">
-        <v>72917</v>
+        <v>103186</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3980,7 +3980,7 @@
         <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,7 +4028,7 @@
         <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>228</v>

--- a/data/trans_orig/IP18A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB2A0C9-2FF3-4AD0-A644-C8192446B9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC115CC-EDB3-4356-918A-E22C51B7C6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AF082B60-3414-4DA7-9D3B-3050A93B669D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE91051-8F76-41F6-8EC3-230AAFA0B020}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="273">
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2007 (Tasa respuesta: 86,98%)</t>
   </si>
@@ -68,7 +68,31 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -77,655 +101,763 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>97,78%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2015 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
 </sst>
 </file>
@@ -736,7 +868,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -832,39 +964,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -916,7 +1048,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1027,13 +1159,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1042,6 +1167,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1106,19 +1238,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C78674-F89B-4CAC-8B20-C0B1271ABC12}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584DECED-4A00-4E24-BBF4-F66FBD8C616B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1235,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>199986</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1250,34 +1402,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>196499</v>
+        <v>711</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>599</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>396485</v>
+        <v>711</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,10 +1438,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>107681</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1301,34 +1453,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="I5" s="7">
-        <v>1308</v>
+        <v>101003</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>1308</v>
+        <v>208684</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,49 +1489,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7">
-        <v>199986</v>
+        <v>107681</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="I6" s="7">
-        <v>197807</v>
+        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>601</v>
+        <v>317</v>
       </c>
       <c r="N6" s="7">
-        <v>397793</v>
+        <v>209395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,49 +1542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>196917</v>
+        <v>1385</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>598</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>269</v>
-      </c>
-      <c r="I7" s="7">
-        <v>182239</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>567</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>379156</v>
+        <v>1983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,49 +1593,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="D8" s="7">
-        <v>1385</v>
+        <v>232017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>230988</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>695</v>
       </c>
       <c r="N8" s="7">
-        <v>1385</v>
+        <v>463006</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,102 +1644,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="D9" s="7">
-        <v>198302</v>
+        <v>233402</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="I9" s="7">
-        <v>182239</v>
+        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>569</v>
+        <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>380541</v>
+        <v>464989</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>336</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>223588</v>
+        <v>961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>214866</v>
+        <v>1523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>654</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>438454</v>
+        <v>2484</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,49 +1748,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7">
-        <v>2139</v>
+        <v>114710</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="I11" s="7">
-        <v>2395</v>
+        <v>103797</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="N11" s="7">
-        <v>4534</v>
+        <v>218507</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,93 +1799,93 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="D12" s="7">
-        <v>225727</v>
+        <v>115671</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="I12" s="7">
-        <v>217261</v>
+        <v>105320</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>660</v>
+        <v>330</v>
       </c>
       <c r="N12" s="7">
-        <v>442988</v>
+        <v>220991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>934</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>620489</v>
+        <v>1178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>593603</v>
+        <v>873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="M13" s="7">
-        <v>1820</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1214094</v>
+        <v>2051</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>60</v>
@@ -1751,49 +1903,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="D14" s="7">
-        <v>3525</v>
+        <v>166082</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>232</v>
+      </c>
+      <c r="I14" s="7">
+        <v>157814</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3704</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>482</v>
+      </c>
+      <c r="N14" s="7">
+        <v>323896</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="M14" s="7">
-        <v>10</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7228</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,55 +1954,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>252</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167260</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>233</v>
+      </c>
+      <c r="I15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>485</v>
+      </c>
+      <c r="N15" s="7">
+        <v>325947</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3525</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3704</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7228</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>934</v>
+      </c>
+      <c r="D17" s="7">
+        <v>620489</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="7">
+        <v>886</v>
+      </c>
+      <c r="I17" s="7">
+        <v>593603</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1820</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1214094</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>939</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>624014</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>891</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>597307</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1830</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1221322</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1863,8 +2176,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFE72F1-1141-4AB2-A42C-B02841A266C8}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90008D01-348C-4E47-AEE5-0495E28A7702}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1880,7 +2193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1981,49 +2294,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>230995</v>
+        <v>652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>323</v>
-      </c>
-      <c r="I4" s="7">
-        <v>215311</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>652</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>649</v>
-      </c>
-      <c r="N4" s="7">
-        <v>446304</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,49 +2345,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D5" s="7">
-        <v>652</v>
+        <v>141796</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>648</v>
+        <v>141562</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>412</v>
+      </c>
+      <c r="N5" s="7">
+        <v>283358</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1301</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +2396,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="D6" s="7">
-        <v>231647</v>
+        <v>142448</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>215959</v>
+        <v>141562</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>651</v>
+        <v>413</v>
       </c>
       <c r="N6" s="7">
-        <v>447605</v>
+        <v>284010</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,49 +2449,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>302</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>219303</v>
+        <v>4359</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
-        <v>297</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>212628</v>
+        <v>2059</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
-        <v>599</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>431931</v>
+        <v>6418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,49 +2500,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="D8" s="7">
-        <v>5886</v>
+        <v>247521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>313</v>
       </c>
       <c r="I8" s="7">
-        <v>3582</v>
+        <v>217791</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>655</v>
       </c>
       <c r="N8" s="7">
-        <v>9468</v>
+        <v>465312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,102 +2551,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="D9" s="7">
-        <v>225189</v>
+        <v>251880</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>216210</v>
+        <v>219850</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>612</v>
+        <v>664</v>
       </c>
       <c r="N9" s="7">
-        <v>441399</v>
+        <v>471730</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>248782</v>
+        <v>1527</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
-        <v>327</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>230245</v>
+        <v>3553</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
-        <v>692</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>479027</v>
+        <v>5080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,49 +2655,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="D11" s="7">
-        <v>1339</v>
+        <v>148147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>1382</v>
+        <v>146661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="N11" s="7">
-        <v>2720</v>
+        <v>294808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,102 +2706,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="D12" s="7">
-        <v>250121</v>
+        <v>149674</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="I12" s="7">
-        <v>231627</v>
+        <v>150214</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>696</v>
+        <v>428</v>
       </c>
       <c r="N12" s="7">
-        <v>481747</v>
+        <v>299888</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>993</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>699079</v>
+        <v>1339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>658184</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
-        <v>1940</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1357263</v>
+        <v>1339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,49 +2810,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>7877</v>
+        <v>161615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="I14" s="7">
-        <v>5612</v>
+        <v>152170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
+        <v>452</v>
+      </c>
+      <c r="N14" s="7">
+        <v>313785</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="N14" s="7">
-        <v>13489</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,55 +2861,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>239</v>
+      </c>
+      <c r="D15" s="7">
+        <v>162954</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>215</v>
+      </c>
+      <c r="I15" s="7">
+        <v>152170</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>454</v>
+      </c>
+      <c r="N15" s="7">
+        <v>315124</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7877</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5612</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="7">
+        <v>19</v>
+      </c>
+      <c r="N16" s="7">
+        <v>13489</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>993</v>
+      </c>
+      <c r="D17" s="7">
+        <v>699079</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="7">
+        <v>947</v>
+      </c>
+      <c r="I17" s="7">
+        <v>658183</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1940</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1357263</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1004</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>706956</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>955</v>
       </c>
-      <c r="I15" s="7">
-        <v>663796</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="I18" s="7">
+        <v>663795</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1959</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1370752</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2609,8 +3083,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91192720-C80C-406C-BC02-14461759402F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B58C91-37CB-4436-A688-A59BDC24516B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2626,7 +3100,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2727,49 +3201,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>199510</v>
+        <v>1286</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>544</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>306</v>
-      </c>
-      <c r="I4" s="7">
-        <v>188855</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1830</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="7">
-        <v>606</v>
-      </c>
-      <c r="N4" s="7">
-        <v>388364</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,49 +3252,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="D5" s="7">
-        <v>1286</v>
+        <v>116532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>2311</v>
+        <v>126465</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>3597</v>
+        <v>242998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,49 +3303,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7">
-        <v>200796</v>
+        <v>117818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>191166</v>
+        <v>127009</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>611</v>
+        <v>380</v>
       </c>
       <c r="N6" s="7">
-        <v>391961</v>
+        <v>244828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,49 +3356,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>224132</v>
+        <v>2285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>209441</v>
+        <v>3650</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
-        <v>644</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>433573</v>
+        <v>5934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,49 +3407,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D8" s="7">
-        <v>2285</v>
+        <v>233963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="I8" s="7">
-        <v>3682</v>
+        <v>188418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>642</v>
       </c>
       <c r="N8" s="7">
-        <v>5967</v>
+        <v>422382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,102 +3458,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D9" s="7">
-        <v>226417</v>
+        <v>236248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>213123</v>
+        <v>192068</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N9" s="7">
-        <v>439540</v>
+        <v>428316</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>236514</v>
+        <v>713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>329</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>234627</v>
+        <v>2457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
-        <v>649</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>471141</v>
+        <v>3170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,49 +3562,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>5954</v>
+        <v>168054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="I11" s="7">
-        <v>1429</v>
+        <v>167041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>473</v>
       </c>
       <c r="N11" s="7">
-        <v>7383</v>
+        <v>335096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,102 +3613,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>242468</v>
+        <v>168767</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>236056</v>
+        <v>169498</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>658</v>
+        <v>478</v>
       </c>
       <c r="N12" s="7">
-        <v>478524</v>
+        <v>338266</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>945</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>660156</v>
+        <v>5240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
-        <v>954</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>632923</v>
+        <v>772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
-        <v>1899</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>1293079</v>
+        <v>6012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,49 +3717,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7">
-        <v>9524</v>
+        <v>141607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="I14" s="7">
-        <v>7422</v>
+        <v>150997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="N14" s="7">
-        <v>16946</v>
+        <v>292604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,55 +3768,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>198</v>
+      </c>
+      <c r="D15" s="7">
+        <v>146847</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>216</v>
+      </c>
+      <c r="I15" s="7">
+        <v>151769</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>414</v>
+      </c>
+      <c r="N15" s="7">
+        <v>298616</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9524</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7422</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16" s="7">
+        <v>23</v>
+      </c>
+      <c r="N16" s="7">
+        <v>16946</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>945</v>
+      </c>
+      <c r="D17" s="7">
+        <v>660156</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="7">
+        <v>954</v>
+      </c>
+      <c r="I17" s="7">
+        <v>632923</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1899</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1293079</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>957</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>669680</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>965</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640345</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1922</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1310025</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3355,8 +3990,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204088D2-AAB2-4790-B28B-76343F95BEC2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25EE5D6-6DC6-451B-8F12-F2BA0FC5B326}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3372,7 +4007,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3473,49 +4108,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>27155</v>
+        <v>388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>418</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>40</v>
-      </c>
-      <c r="I4" s="7">
-        <v>21777</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>806</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>96</v>
-      </c>
-      <c r="N4" s="7">
-        <v>48932</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,49 +4159,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>388</v>
+        <v>17283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>925</v>
+        <v>15913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>1313</v>
+        <v>33196</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,49 +4210,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>27543</v>
+        <v>17671</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>22702</v>
+        <v>16331</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>50245</v>
+        <v>34002</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,49 +4263,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>36876</v>
+        <v>1304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1094</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>51</v>
-      </c>
-      <c r="I7" s="7">
-        <v>34149</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>71026</v>
+        <v>2397</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,49 +4314,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>1304</v>
+        <v>31310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I8" s="7">
-        <v>587</v>
+        <v>26856</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>1891</v>
+        <v>58167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,99 +4368,99 @@
         <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>38180</v>
+        <v>32614</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>34736</v>
+        <v>27950</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>72917</v>
+        <v>60564</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>56802</v>
+        <v>1806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>41122</v>
+        <v>819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>97924</v>
+        <v>2625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,49 +4469,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>3900</v>
+        <v>33254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>1362</v>
+        <v>29650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>5262</v>
+        <v>62904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,102 +4520,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>60702</v>
+        <v>35060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>42484</v>
+        <v>30469</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>103186</v>
+        <v>65529</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>120833</v>
+        <v>2095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>97050</v>
+        <v>542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>217883</v>
+        <v>2637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,49 +4624,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>5592</v>
+        <v>38986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>2873</v>
+        <v>24631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>8465</v>
+        <v>63616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,55 +4675,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>41081</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25173</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>90</v>
+      </c>
+      <c r="N15" s="7">
+        <v>66253</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5592</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2873</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M16" s="7">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8465</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>181</v>
+      </c>
+      <c r="D17" s="7">
+        <v>120833</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="7">
+        <v>148</v>
+      </c>
+      <c r="I17" s="7">
+        <v>97050</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M17" s="7">
+        <v>329</v>
+      </c>
+      <c r="N17" s="7">
+        <v>217883</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>126425</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>153</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>99923</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>341</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>226348</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP18A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC115CC-EDB3-4356-918A-E22C51B7C6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB04A8EB-08F6-46D1-A427-1F0973996C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE91051-8F76-41F6-8EC3-230AAFA0B020}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C32685A-686D-4AF0-9ACC-07DBEEED10E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -86,13 +86,13 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>3,48%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,13 +110,13 @@
     <t>99,3%</t>
   </si>
   <si>
-    <t>96,52%</t>
+    <t>96,56%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,3%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -125,13 +125,13 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -140,25 +140,25 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>98,87%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -170,13 +170,13 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>4,3%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>1,12%</t>
@@ -185,25 +185,25 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,06%</t>
+    <t>3,05%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>96,16%</t>
+    <t>95,7%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>95,55%</t>
+    <t>95,6%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>96,94%</t>
+    <t>96,95%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -212,13 +212,13 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -227,22 +227,22 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>96,71%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>98,18%</t>
+    <t>98,13%</t>
   </si>
   <si>
     <t>99,85%</t>
@@ -254,610 +254,610 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584DECED-4A00-4E24-BBF4-F66FBD8C616B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F06F83D-4483-4DAC-90D2-F3DDD7CEF106}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2034,7 +2034,7 @@
         <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2046,10 +2046,10 @@
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,13 +2064,13 @@
         <v>620489</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>886</v>
@@ -2079,13 +2079,13 @@
         <v>593603</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>1820</v>
@@ -2097,10 +2097,10 @@
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,7 +2156,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90008D01-348C-4E47-AEE5-0495E28A7702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953CAF3D-B3D7-4842-A80E-2105E8CCB0B3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2193,7 +2193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2300,13 +2300,13 @@
         <v>652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2330,13 +2330,13 @@
         <v>652</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,10 +2351,10 @@
         <v>141796</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2369,7 +2369,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2381,10 +2381,10 @@
         <v>283358</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2455,13 +2455,13 @@
         <v>4359</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>2059</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2485,13 +2485,13 @@
         <v>6418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2506,13 @@
         <v>247521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>313</v>
@@ -2521,13 +2521,13 @@
         <v>217791</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -2536,13 +2536,13 @@
         <v>465312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2610,13 @@
         <v>1527</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2625,13 +2625,13 @@
         <v>3553</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2640,13 +2640,13 @@
         <v>5080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,10 +2661,10 @@
         <v>148147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2676,13 +2676,13 @@
         <v>146661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
         <v>421</v>
@@ -2691,13 +2691,13 @@
         <v>294808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2765,13 @@
         <v>1339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2795,13 +2795,13 @@
         <v>1339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,10 +2816,10 @@
         <v>161615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2834,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2846,10 +2846,10 @@
         <v>313785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2920,13 +2920,13 @@
         <v>7877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2935,13 +2935,13 @@
         <v>5612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2950,13 +2950,13 @@
         <v>13489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2971,13 @@
         <v>699079</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7">
         <v>947</v>
@@ -2986,13 +2986,13 @@
         <v>658183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>1940</v>
@@ -3001,13 +3001,13 @@
         <v>1357263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3063,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +3083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B58C91-37CB-4436-A688-A59BDC24516B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B0C178-D169-4503-A152-9CAF1948C3A1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3100,7 +3100,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3207,13 +3207,13 @@
         <v>1286</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3228,7 +3228,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3237,13 +3237,13 @@
         <v>1830</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,10 +3258,10 @@
         <v>116532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3276,7 +3276,7 @@
         <v>38</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3288,13 +3288,13 @@
         <v>242998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3362,13 @@
         <v>2285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3377,13 +3377,13 @@
         <v>3650</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3392,13 +3392,13 @@
         <v>5934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3413,13 @@
         <v>233963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>297</v>
@@ -3428,13 +3428,13 @@
         <v>188418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>642</v>
@@ -3443,13 +3443,13 @@
         <v>422382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3517,13 @@
         <v>713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3535,10 +3535,10 @@
         <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3547,13 +3547,13 @@
         <v>3170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,10 +3568,10 @@
         <v>168054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3586,10 +3586,10 @@
         <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>473</v>
@@ -3598,13 +3598,13 @@
         <v>335096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3687,13 @@
         <v>772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3702,13 +3702,13 @@
         <v>6012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>141607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -3738,10 +3738,10 @@
         <v>150997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3753,13 +3753,13 @@
         <v>292604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3827,13 @@
         <v>9524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3842,13 +3842,13 @@
         <v>7422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3857,13 +3857,13 @@
         <v>16946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3878,13 @@
         <v>660156</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>954</v>
@@ -3893,13 +3893,13 @@
         <v>632923</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1899</v>
@@ -3908,13 +3908,13 @@
         <v>1293079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,7 +3970,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3990,7 +3990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25EE5D6-6DC6-451B-8F12-F2BA0FC5B326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC52DE9-B922-428E-99A5-EC4F74AA9AE8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4007,7 +4007,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4114,13 +4114,13 @@
         <v>388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4129,13 +4129,13 @@
         <v>418</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4144,13 +4144,13 @@
         <v>806</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,10 +4165,10 @@
         <v>17283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4180,10 +4180,10 @@
         <v>15913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4195,10 +4195,10 @@
         <v>33196</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4269,13 +4269,13 @@
         <v>1304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4284,13 +4284,13 @@
         <v>1094</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4299,13 +4299,13 @@
         <v>2397</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,10 +4320,10 @@
         <v>31310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4335,10 +4335,10 @@
         <v>26856</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4350,13 +4350,13 @@
         <v>58167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4424,13 @@
         <v>1806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4439,13 +4439,13 @@
         <v>819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4454,13 +4454,13 @@
         <v>2625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,10 +4475,10 @@
         <v>33254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4490,10 +4490,10 @@
         <v>29650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4505,13 +4505,13 @@
         <v>62904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4579,13 @@
         <v>2095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4594,13 +4594,13 @@
         <v>542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4609,13 +4609,13 @@
         <v>2637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,10 +4630,10 @@
         <v>38986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4645,10 +4645,10 @@
         <v>24631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4660,13 +4660,13 @@
         <v>63616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4734,13 @@
         <v>5592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4749,13 +4749,13 @@
         <v>2873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4764,13 +4764,13 @@
         <v>8465</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4785,13 @@
         <v>120833</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -4800,13 +4800,13 @@
         <v>97050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -4815,7 +4815,7 @@
         <v>217883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>271</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB04A8EB-08F6-46D1-A427-1F0973996C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AFEDA50-BE32-48D0-AE3E-B67140C23D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C32685A-686D-4AF0-9ACC-07DBEEED10E1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD75FBBA-78FE-49D5-9483-8CE3DFCE5827}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="277">
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2007 (Tasa respuesta: 86,98%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,790 +74,802 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F06F83D-4483-4DAC-90D2-F3DDD7CEF106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FE2A63-51D1-40BF-8634-E9D5EF16E6DB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1387,10 +1399,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1402,16 +1414,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1426,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1438,10 +1450,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>107681</v>
+        <v>101003</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1453,19 +1465,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>101003</v>
+        <v>107681</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>316</v>
@@ -1480,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,34 +1501,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>155</v>
+      </c>
+      <c r="D6" s="7">
+        <v>101714</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>162</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>107681</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>155</v>
-      </c>
-      <c r="I6" s="7">
-        <v>101714</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
@@ -1525,13 +1537,13 @@
         <v>209395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,31 +1554,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1385</v>
+        <v>598</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>598</v>
+        <v>1385</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>30</v>
@@ -1593,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D8" s="7">
-        <v>232017</v>
+        <v>230988</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -1605,13 +1617,13 @@
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="I8" s="7">
-        <v>230988</v>
+        <v>232017</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
@@ -1620,7 +1632,7 @@
         <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>695</v>
@@ -1644,34 +1656,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>346</v>
+      </c>
+      <c r="D9" s="7">
+        <v>231586</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>352</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>233402</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>346</v>
-      </c>
-      <c r="I9" s="7">
-        <v>231586</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>698</v>
@@ -1680,13 +1692,13 @@
         <v>464989</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,31 +1709,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>961</v>
+        <v>1523</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1523</v>
+        <v>961</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>45</v>
@@ -1748,10 +1760,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D11" s="7">
-        <v>114710</v>
+        <v>103797</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -1760,13 +1772,13 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="I11" s="7">
-        <v>103797</v>
+        <v>114710</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>51</v>
@@ -1775,7 +1787,7 @@
         <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>327</v>
@@ -1799,34 +1811,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>157</v>
+      </c>
+      <c r="D12" s="7">
+        <v>105320</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>173</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>115671</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>157</v>
-      </c>
-      <c r="I12" s="7">
-        <v>105320</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>330</v>
@@ -1835,13 +1847,13 @@
         <v>220991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,31 +1864,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>873</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1178</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>873</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>59</v>
@@ -1903,34 +1915,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7">
+        <v>157814</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>250</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>166082</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>232</v>
-      </c>
-      <c r="I14" s="7">
-        <v>157814</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>482</v>
@@ -1954,34 +1966,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>252</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>167260</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
-      <c r="I15" s="7">
-        <v>158687</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>485</v>
@@ -1990,13 +2002,13 @@
         <v>325947</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3525</v>
+        <v>3704</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>69</v>
@@ -2019,22 +2031,22 @@
         <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3704</v>
+        <v>3525</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2043,7 +2055,7 @@
         <v>7228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>74</v>
@@ -2058,31 +2070,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>934</v>
+        <v>886</v>
       </c>
       <c r="D17" s="7">
-        <v>620489</v>
+        <v>593603</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>934</v>
+      </c>
+      <c r="I17" s="7">
+        <v>620489</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="7">
-        <v>886</v>
-      </c>
-      <c r="I17" s="7">
-        <v>593603</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>80</v>
@@ -2094,7 +2106,7 @@
         <v>1214094</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>81</v>
@@ -2109,34 +2121,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>891</v>
+      </c>
+      <c r="D18" s="7">
+        <v>597307</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>939</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>624014</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>891</v>
-      </c>
-      <c r="I18" s="7">
-        <v>597307</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1830</v>
@@ -2145,13 +2157,13 @@
         <v>1221322</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,7 +2188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953CAF3D-B3D7-4842-A80E-2105E8CCB0B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD0F177-2219-4E31-A3D0-1781335461B4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2294,28 +2306,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>652</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2330,13 +2342,13 @@
         <v>652</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,31 +2357,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D5" s="7">
-        <v>141796</v>
+        <v>141562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I5" s="7">
-        <v>141562</v>
+        <v>141796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2381,13 +2393,13 @@
         <v>283358</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,34 +2408,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>141562</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>202</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>142448</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>141562</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>413</v>
@@ -2432,13 +2444,13 @@
         <v>284010</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,34 +2461,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2059</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4359</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2059</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2485,13 +2497,13 @@
         <v>6418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,34 +2512,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>313</v>
+      </c>
+      <c r="D8" s="7">
+        <v>217791</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="7">
         <v>342</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>247521</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="7">
-        <v>313</v>
-      </c>
-      <c r="I8" s="7">
-        <v>217791</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -2536,13 +2548,13 @@
         <v>465312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,34 +2563,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>316</v>
+      </c>
+      <c r="D9" s="7">
+        <v>219850</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>348</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>251880</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>316</v>
-      </c>
-      <c r="I9" s="7">
-        <v>219850</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>664</v>
@@ -2587,13 +2599,13 @@
         <v>471730</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,34 +2616,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3553</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1527</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3553</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2640,13 +2652,13 @@
         <v>5080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,34 +2667,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>208</v>
+      </c>
+      <c r="D11" s="7">
+        <v>146661</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="7">
         <v>213</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>148147</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>208</v>
-      </c>
-      <c r="I11" s="7">
-        <v>146661</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>421</v>
@@ -2691,13 +2703,13 @@
         <v>294808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,34 +2718,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>213</v>
+      </c>
+      <c r="D12" s="7">
+        <v>150214</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>215</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149674</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>213</v>
-      </c>
-      <c r="I12" s="7">
-        <v>150214</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>428</v>
@@ -2742,13 +2754,13 @@
         <v>299888</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,34 +2771,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1339</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2795,13 +2807,13 @@
         <v>1339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,31 +2822,31 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>215</v>
+      </c>
+      <c r="D14" s="7">
+        <v>152170</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
         <v>237</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>161615</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>215</v>
-      </c>
-      <c r="I14" s="7">
-        <v>152170</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2846,13 +2858,13 @@
         <v>313785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,34 +2873,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>215</v>
+      </c>
+      <c r="D15" s="7">
+        <v>152170</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>239</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>162954</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>215</v>
-      </c>
-      <c r="I15" s="7">
-        <v>152170</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>454</v>
@@ -2897,13 +2909,13 @@
         <v>315124</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,34 +2926,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5612</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>7877</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5612</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2950,13 +2962,13 @@
         <v>13489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,34 +2977,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>947</v>
+      </c>
+      <c r="D17" s="7">
+        <v>658183</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="7">
         <v>993</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>699079</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="7">
-        <v>947</v>
-      </c>
-      <c r="I17" s="7">
-        <v>658183</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>1940</v>
@@ -3001,13 +3013,13 @@
         <v>1357263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,34 +3028,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>955</v>
+      </c>
+      <c r="D18" s="7">
+        <v>663795</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1004</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>706956</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>955</v>
-      </c>
-      <c r="I18" s="7">
-        <v>663795</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1959</v>
@@ -3052,13 +3064,13 @@
         <v>1370752</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B0C178-D169-4503-A152-9CAF1948C3A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124FD95C-7606-4FC9-B169-23E71500EFB4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3100,7 +3112,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3201,34 +3213,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>544</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1286</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>544</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3237,13 +3249,13 @@
         <v>1830</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,34 +3264,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>202</v>
+      </c>
+      <c r="D5" s="7">
+        <v>126465</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
         <v>175</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>116532</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>202</v>
-      </c>
-      <c r="I5" s="7">
-        <v>126465</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>377</v>
@@ -3288,13 +3300,13 @@
         <v>242998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,34 +3315,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>203</v>
+      </c>
+      <c r="D6" s="7">
+        <v>127009</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>177</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>117818</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>203</v>
-      </c>
-      <c r="I6" s="7">
-        <v>127009</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>380</v>
@@ -3339,13 +3351,13 @@
         <v>244828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,34 +3368,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3650</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2285</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3650</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3392,13 +3404,13 @@
         <v>5934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,34 +3419,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>297</v>
+      </c>
+      <c r="D8" s="7">
+        <v>188418</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="7">
         <v>345</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>233963</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="7">
-        <v>297</v>
-      </c>
-      <c r="I8" s="7">
-        <v>188418</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>642</v>
@@ -3443,13 +3455,13 @@
         <v>422382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,34 +3470,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>302</v>
+      </c>
+      <c r="D9" s="7">
+        <v>192068</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>348</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>236248</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>302</v>
-      </c>
-      <c r="I9" s="7">
-        <v>192068</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>650</v>
@@ -3494,13 +3506,13 @@
         <v>428316</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,34 +3523,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2457</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>713</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2457</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3547,13 +3559,13 @@
         <v>3170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,34 +3574,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>240</v>
+      </c>
+      <c r="D11" s="7">
+        <v>167041</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="7">
         <v>233</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>168054</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>240</v>
-      </c>
-      <c r="I11" s="7">
-        <v>167041</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>473</v>
@@ -3601,10 +3613,10 @@
         <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,34 +3625,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>244</v>
+      </c>
+      <c r="D12" s="7">
+        <v>169498</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>234</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>168767</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>244</v>
-      </c>
-      <c r="I12" s="7">
-        <v>169498</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>478</v>
@@ -3649,13 +3661,13 @@
         <v>338266</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,34 +3678,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>772</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5240</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>772</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3702,13 +3714,13 @@
         <v>6012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,25 +3729,25 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>215</v>
+      </c>
+      <c r="D14" s="7">
+        <v>150997</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>192</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>141607</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="7">
-        <v>215</v>
-      </c>
-      <c r="I14" s="7">
-        <v>150997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>195</v>
@@ -3744,7 +3756,7 @@
         <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>407</v>
@@ -3753,13 +3765,13 @@
         <v>292604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,34 +3780,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>216</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151769</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>198</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>146847</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>216</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151769</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>414</v>
@@ -3804,13 +3816,13 @@
         <v>298616</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,34 +3833,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7422</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>9524</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7422</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3857,13 +3869,13 @@
         <v>16946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,34 +3884,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>954</v>
+      </c>
+      <c r="D17" s="7">
+        <v>632923</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="7">
         <v>945</v>
       </c>
-      <c r="D17" s="7">
-        <v>660156</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>660157</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="7">
-        <v>954</v>
-      </c>
-      <c r="I17" s="7">
-        <v>632923</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1899</v>
@@ -3908,13 +3920,13 @@
         <v>1293079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,34 +3935,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>965</v>
+      </c>
+      <c r="D18" s="7">
+        <v>640345</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>957</v>
       </c>
-      <c r="D18" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>965</v>
-      </c>
       <c r="I18" s="7">
-        <v>640345</v>
+        <v>669681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1922</v>
@@ -3959,13 +3971,13 @@
         <v>1310025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,7 +4002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC52DE9-B922-428E-99A5-EC4F74AA9AE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261EB101-6583-42B0-9A88-6A15FCF2F055}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4007,7 +4019,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4111,46 +4123,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,49 +4171,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15879</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
         <v>37</v>
       </c>
-      <c r="D5" s="7">
-        <v>17283</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>18051</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15913</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>33196</v>
+        <v>33930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,49 +4222,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16295</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
-        <v>17671</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
       <c r="I6" s="7">
-        <v>16331</v>
+        <v>18447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>34002</v>
+        <v>34742</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,46 +4278,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1304</v>
+        <v>1152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1094</v>
+        <v>1312</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>2397</v>
+        <v>2464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,49 +4326,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7">
+        <v>27046</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>51</v>
       </c>
-      <c r="D8" s="7">
-        <v>31310</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>32416</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>41</v>
-      </c>
-      <c r="I8" s="7">
-        <v>26856</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>58167</v>
+        <v>59461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,49 +4377,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28198</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
-        <v>32614</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
       <c r="I9" s="7">
-        <v>27950</v>
+        <v>33728</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>60564</v>
+        <v>61925</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,49 +4430,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>788</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1806</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>1921</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>819</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2625</v>
+        <v>2709</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,49 +4481,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7">
+        <v>30508</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
         <v>42</v>
       </c>
-      <c r="D11" s="7">
-        <v>33254</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>34950</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>40</v>
-      </c>
-      <c r="I11" s="7">
-        <v>29650</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>62904</v>
+        <v>65458</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +4532,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31296</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>44</v>
       </c>
-      <c r="D12" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>41</v>
-      </c>
       <c r="I12" s="7">
-        <v>30469</v>
+        <v>36871</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>65529</v>
+        <v>68167</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,49 +4585,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>540</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
-        <v>2095</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
       <c r="I13" s="7">
-        <v>542</v>
+        <v>2087</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,49 +4636,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23986</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>51</v>
       </c>
-      <c r="D14" s="7">
-        <v>38986</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>36</v>
-      </c>
       <c r="I14" s="7">
-        <v>24631</v>
+        <v>40459</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>63616</v>
+        <v>64444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,49 +4687,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24526</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>53</v>
       </c>
-      <c r="D15" s="7">
-        <v>41081</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
       <c r="I15" s="7">
-        <v>25173</v>
+        <v>42546</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>66253</v>
+        <v>67071</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,49 +4740,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>5592</v>
+        <v>2896</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>2873</v>
+        <v>5716</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>8465</v>
+        <v>8612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,49 +4791,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>148</v>
+      </c>
+      <c r="D17" s="7">
+        <v>97418</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="7">
         <v>181</v>
       </c>
-      <c r="D17" s="7">
-        <v>120833</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="7">
-        <v>148</v>
-      </c>
       <c r="I17" s="7">
-        <v>97050</v>
+        <v>125876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
       </c>
       <c r="N17" s="7">
-        <v>217883</v>
+        <v>223294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,49 +4842,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>153</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>188</v>
       </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
       <c r="I18" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
